--- a/flow-ios-login.xlsx
+++ b/flow-ios-login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62708E80-4B0D-E542-8930-AB0D00BF92E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B16963-1B40-4E4F-9611-7E1D3FABB81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>擬似AmazonPayボタン</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Login後画面</t>
+  </si>
+  <si>
+    <t>Login後情報保存用</t>
+  </si>
+  <si>
+    <t>にCacheを登録し、</t>
+  </si>
+  <si>
+    <t>tokenを取得</t>
   </si>
 </sst>
 </file>
@@ -2085,6 +2094,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C80DC75-6D61-1541-83F7-99E97F92F7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2689225" y="8969375"/>
+          <a:ext cx="10788650" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4208,6 +4272,61 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Elbow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECA83C9-71B3-8144-A643-496BF3D26F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="13754100"/>
+          <a:ext cx="8077200" cy="4064000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4532,7 +4651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D99BE-63C2-7E44-889E-F179BF7D5A5E}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5840,7 +5961,9 @@
       <c r="C38" s="8"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -5877,7 +6000,9 @@
       <c r="C39" s="8"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -5913,7 +6038,9 @@
       <c r="C40" s="8"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -7835,7 +7962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA60C8-2F87-6345-A772-BCFBFE4ABD71}">
   <dimension ref="A1:AM93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10740,7 +10869,9 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -10784,7 +10915,9 @@
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -10826,7 +10959,9 @@
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>

--- a/flow-ios-login.xlsx
+++ b/flow-ios-login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-mobile-sample_ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B16963-1B40-4E4F-9611-7E1D3FABB81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3154084-C013-804B-AA2F-C3F1C4CBB906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="Native" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>擬似AmazonPayボタン</t>
   </si>
@@ -120,12 +120,18 @@
   <si>
     <t>tokenを取得</t>
   </si>
+  <si>
+    <t>Cacheに保存</t>
+  </si>
+  <si>
+    <t>Cacheを取得</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2149,6 +2155,236 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rounded Rectangular Callout 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464CEE83-E53C-7747-90F3-C128CE02AD5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="7158491"/>
+          <a:ext cx="1767300" cy="694360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102042"/>
+            <a:gd name="adj2" fmla="val -37803"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>取得したtokenはアプリ側に保持する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65034</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangular Callout 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0306DB2B-D777-704D-9CF0-56345035E253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9145534" y="5021225"/>
+          <a:ext cx="2574750" cy="1119400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43035"/>
+            <a:gd name="adj2" fmla="val 158679"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cacheをコピーして、新しくtokenを発行し直して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>登録する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>以後の受注情報の更新は、この新しく発行した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に対して行う。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171655</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33415</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangular Callout 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFA2FFC-DDAC-7043-A197-E2C8DEAFD132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19158155" y="2730500"/>
+          <a:ext cx="3163760" cy="965776"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87688"/>
+            <a:gd name="adj2" fmla="val 29002"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtoken, 新しいtokenの両方を受け取る。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtokenと、アプリが保持していたtokenが一致しなければ、エラーとする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cache取得・更新には新しいtokenを使う。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4347,6 +4583,236 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>59191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>131251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangular Callout 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9644D426-9A46-3F45-8922-8B87A560FAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="13902191"/>
+          <a:ext cx="1767300" cy="694360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85514"/>
+            <a:gd name="adj2" fmla="val 13410"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>取得したtokenはアプリ側に保持する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>814334</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangular Callout 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65040E9-A120-F044-A4AB-FCBEC67FE17D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9069334" y="4906925"/>
+          <a:ext cx="2574750" cy="1119400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43035"/>
+            <a:gd name="adj2" fmla="val 158679"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cacheをコピーして、新しくtokenを発行し直して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>登録する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>以後の受注情報の更新は、この新しく発行した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に対して行う。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425655</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>287415</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangular Callout 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A19CDFC-848F-0C4B-909D-4AB407058A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19412155" y="2679700"/>
+          <a:ext cx="3163760" cy="965776"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87688"/>
+            <a:gd name="adj2" fmla="val 29002"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtoken, 新しいtokenの両方を受け取る。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>古いtokenと、アプリが保持していたtokenが一致しなければ、エラーとする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cache取得・更新には新しいtokenを使う。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4651,17 +5117,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D99BE-63C2-7E44-889E-F179BF7D5A5E}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="17" thickBot="1"/>
+    <row r="2" spans="1:34">
       <c r="B2" s="14"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -4696,7 +5160,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
         <v>2</v>
@@ -4738,7 +5202,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +5239,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
@@ -4812,7 +5276,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="7"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
@@ -4849,7 +5313,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="7"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +5350,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="7"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +5387,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="7"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="B9" s="16"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
@@ -4958,7 +5422,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="7"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
@@ -4995,7 +5459,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="7"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5496,7 @@
       <c r="AG11" s="6"/>
       <c r="AH11" s="7"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
@@ -5069,7 +5533,7 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34">
       <c r="B13" s="16"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
@@ -5104,7 +5568,7 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="7"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
@@ -5139,7 +5603,7 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="B15" s="16"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
@@ -5174,7 +5638,7 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
@@ -5209,7 +5673,7 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="7"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34">
       <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
@@ -5244,7 +5708,7 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="7"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34">
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
@@ -5279,7 +5743,7 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="7"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34">
       <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
@@ -5314,7 +5778,7 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="7"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34">
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
@@ -5349,7 +5813,7 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="7"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34">
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
@@ -5383,7 +5847,7 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="7"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34">
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
@@ -5417,7 +5881,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="7"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34">
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
@@ -5452,7 +5916,7 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="7"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34">
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
@@ -5487,7 +5951,7 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="7"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34">
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
@@ -5522,7 +5986,7 @@
       <c r="AG25" s="6"/>
       <c r="AH25" s="7"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34">
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
@@ -5557,7 +6021,7 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="7"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34">
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
@@ -5594,7 +6058,7 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="7"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34">
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
@@ -5631,7 +6095,7 @@
       <c r="AG28" s="6"/>
       <c r="AH28" s="7"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34">
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
@@ -5666,7 +6130,7 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="7"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34">
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6"/>
@@ -5701,7 +6165,7 @@
       <c r="AG30" s="6"/>
       <c r="AH30" s="7"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34">
       <c r="B31" s="16"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6"/>
@@ -5736,7 +6200,7 @@
       <c r="AG31" s="6"/>
       <c r="AH31" s="7"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34">
       <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6"/>
@@ -5773,7 +6237,7 @@
       <c r="AG32" s="6"/>
       <c r="AH32" s="7"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34">
       <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6"/>
@@ -5810,7 +6274,7 @@
       <c r="AG33" s="6"/>
       <c r="AH33" s="7"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34">
       <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
@@ -5847,7 +6311,7 @@
       <c r="AG34" s="6"/>
       <c r="AH34" s="7"/>
     </row>
-    <row r="35" spans="2:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" ht="17" thickBot="1">
       <c r="B35" s="17"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -5882,7 +6346,7 @@
       <c r="AG35" s="11"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34">
       <c r="B36" s="14"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -5917,7 +6381,7 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="4"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34">
       <c r="B37" s="16" t="s">
         <v>10</v>
       </c>
@@ -5954,7 +6418,7 @@
       <c r="AG37" s="6"/>
       <c r="AH37" s="7"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34">
       <c r="B38" s="16" t="s">
         <v>9</v>
       </c>
@@ -5993,7 +6457,7 @@
       <c r="AG38" s="6"/>
       <c r="AH38" s="7"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34">
       <c r="B39" s="16" t="s">
         <v>11</v>
       </c>
@@ -6031,7 +6495,7 @@
       <c r="AG39" s="6"/>
       <c r="AH39" s="7"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34">
       <c r="B40" s="16" t="s">
         <v>12</v>
       </c>
@@ -6070,7 +6534,7 @@
       <c r="AG40" s="6"/>
       <c r="AH40" s="7"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34">
       <c r="B41" s="16" t="s">
         <v>13</v>
       </c>
@@ -6107,7 +6571,7 @@
       <c r="AG41" s="6"/>
       <c r="AH41" s="7"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34">
       <c r="B42" s="16" t="s">
         <v>7</v>
       </c>
@@ -6144,7 +6608,7 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="7"/>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34">
       <c r="B43" s="16" t="s">
         <v>9</v>
       </c>
@@ -6181,7 +6645,7 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="7"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:34">
       <c r="B44" s="16"/>
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
@@ -6214,7 +6678,7 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="7"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:34">
       <c r="B45" s="16"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6"/>
@@ -6248,7 +6712,7 @@
       <c r="AG45" s="6"/>
       <c r="AH45" s="7"/>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:34">
       <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6"/>
@@ -6283,7 +6747,7 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="7"/>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:34">
       <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
@@ -6318,7 +6782,7 @@
       <c r="AG47" s="6"/>
       <c r="AH47" s="7"/>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34">
       <c r="B48" s="16"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
@@ -6353,7 +6817,7 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="7"/>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34">
       <c r="B49" s="16"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
@@ -6388,7 +6852,7 @@
       <c r="AG49" s="6"/>
       <c r="AH49" s="7"/>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34">
       <c r="B50" s="16"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6"/>
@@ -6423,7 +6887,7 @@
       <c r="AG50" s="6"/>
       <c r="AH50" s="7"/>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34">
       <c r="B51" s="16"/>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
@@ -6458,7 +6922,7 @@
       <c r="AG51" s="6"/>
       <c r="AH51" s="7"/>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34">
       <c r="B52" s="16"/>
       <c r="C52" s="8"/>
       <c r="D52" s="6"/>
@@ -6492,7 +6956,7 @@
       <c r="AG52" s="6"/>
       <c r="AH52" s="7"/>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:34">
       <c r="B53" s="16"/>
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
@@ -6527,7 +6991,7 @@
       <c r="AG53" s="6"/>
       <c r="AH53" s="7"/>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:34">
       <c r="B54" s="16"/>
       <c r="C54" s="8"/>
       <c r="D54" s="6"/>
@@ -6562,7 +7026,7 @@
       <c r="AG54" s="6"/>
       <c r="AH54" s="7"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:34">
       <c r="B55" s="16"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6"/>
@@ -6597,7 +7061,7 @@
       <c r="AG55" s="6"/>
       <c r="AH55" s="7"/>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:34">
       <c r="B56" s="16"/>
       <c r="C56" s="8"/>
       <c r="D56" s="6"/>
@@ -6632,7 +7096,7 @@
       <c r="AG56" s="6"/>
       <c r="AH56" s="7"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34">
       <c r="B57" s="16"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6"/>
@@ -6667,7 +7131,7 @@
       <c r="AG57" s="6"/>
       <c r="AH57" s="7"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:34">
       <c r="B58" s="16"/>
       <c r="C58" s="8"/>
       <c r="D58" s="6"/>
@@ -6702,7 +7166,7 @@
       <c r="AG58" s="6"/>
       <c r="AH58" s="7"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:34">
       <c r="B59" s="16"/>
       <c r="C59" s="8"/>
       <c r="D59" s="6"/>
@@ -6737,7 +7201,7 @@
       <c r="AG59" s="6"/>
       <c r="AH59" s="7"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:34">
       <c r="B60" s="16"/>
       <c r="C60" s="8"/>
       <c r="D60" s="6"/>
@@ -6772,7 +7236,7 @@
       <c r="AG60" s="6"/>
       <c r="AH60" s="7"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34">
       <c r="B61" s="16"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
@@ -6807,7 +7271,7 @@
       <c r="AG61" s="6"/>
       <c r="AH61" s="7"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34">
       <c r="B62" s="16"/>
       <c r="C62" s="8"/>
       <c r="D62" s="6"/>
@@ -6842,7 +7306,7 @@
       <c r="AG62" s="6"/>
       <c r="AH62" s="7"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:34">
       <c r="B63" s="16"/>
       <c r="C63" s="8"/>
       <c r="D63" s="6"/>
@@ -6877,7 +7341,7 @@
       <c r="AG63" s="6"/>
       <c r="AH63" s="7"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:34">
       <c r="B64" s="16"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6"/>
@@ -6912,7 +7376,7 @@
       <c r="AG64" s="6"/>
       <c r="AH64" s="7"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:34">
       <c r="B65" s="16"/>
       <c r="C65" s="8"/>
       <c r="D65" s="6"/>
@@ -6947,7 +7411,7 @@
       <c r="AG65" s="6"/>
       <c r="AH65" s="7"/>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34">
       <c r="B66" s="16"/>
       <c r="C66" s="8"/>
       <c r="D66" s="6"/>
@@ -6982,7 +7446,7 @@
       <c r="AG66" s="6"/>
       <c r="AH66" s="7"/>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34">
       <c r="B67" s="16"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
@@ -7017,7 +7481,7 @@
       <c r="AG67" s="6"/>
       <c r="AH67" s="7"/>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34">
       <c r="B68" s="16"/>
       <c r="C68" s="8"/>
       <c r="D68" s="6"/>
@@ -7052,7 +7516,7 @@
       <c r="AG68" s="6"/>
       <c r="AH68" s="7"/>
     </row>
-    <row r="69" spans="2:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" ht="17" thickBot="1">
       <c r="B69" s="17"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
@@ -7087,7 +7551,7 @@
       <c r="AG69" s="11"/>
       <c r="AH69" s="12"/>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34">
       <c r="B70" s="14"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -7124,7 +7588,7 @@
       <c r="AG70" s="3"/>
       <c r="AH70" s="4"/>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34">
       <c r="B71" s="16" t="s">
         <v>13</v>
       </c>
@@ -7167,7 +7631,7 @@
       <c r="AG71" s="6"/>
       <c r="AH71" s="7"/>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34">
       <c r="B72" s="16" t="s">
         <v>7</v>
       </c>
@@ -7208,7 +7672,7 @@
       <c r="AG72" s="6"/>
       <c r="AH72" s="7"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34">
       <c r="B73" s="16" t="s">
         <v>9</v>
       </c>
@@ -7247,7 +7711,7 @@
       <c r="AG73" s="6"/>
       <c r="AH73" s="7"/>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34">
       <c r="B74" s="16" t="s">
         <v>6</v>
       </c>
@@ -7284,7 +7748,7 @@
       <c r="AG74" s="6"/>
       <c r="AH74" s="7"/>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:34">
       <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
@@ -7321,7 +7785,7 @@
       <c r="AG75" s="6"/>
       <c r="AH75" s="7"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:34">
       <c r="B76" s="16" t="s">
         <v>9</v>
       </c>
@@ -7358,7 +7822,7 @@
       <c r="AG76" s="6"/>
       <c r="AH76" s="7"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34">
       <c r="B77" s="16"/>
       <c r="C77" s="8"/>
       <c r="D77" s="6"/>
@@ -7393,7 +7857,7 @@
       <c r="AG77" s="6"/>
       <c r="AH77" s="7"/>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34">
       <c r="B78" s="16"/>
       <c r="C78" s="8"/>
       <c r="D78" s="6"/>
@@ -7428,7 +7892,7 @@
       <c r="AG78" s="6"/>
       <c r="AH78" s="7"/>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34">
       <c r="B79" s="16"/>
       <c r="C79" s="8"/>
       <c r="D79" s="6"/>
@@ -7463,7 +7927,7 @@
       <c r="AG79" s="6"/>
       <c r="AH79" s="7"/>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34">
       <c r="B80" s="16"/>
       <c r="C80" s="8"/>
       <c r="D80" s="6"/>
@@ -7484,7 +7948,9 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
+      <c r="V80" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
@@ -7498,7 +7964,7 @@
       <c r="AG80" s="6"/>
       <c r="AH80" s="7"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:34">
       <c r="B81" s="16"/>
       <c r="C81" s="8"/>
       <c r="D81" s="6"/>
@@ -7527,12 +7993,14 @@
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
+      <c r="AE81" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="AF81" s="6"/>
       <c r="AG81" s="6"/>
       <c r="AH81" s="7"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:34">
       <c r="B82" s="16"/>
       <c r="C82" s="8"/>
       <c r="D82" s="6"/>
@@ -7567,7 +8035,7 @@
       <c r="AG82" s="6"/>
       <c r="AH82" s="7"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:34">
       <c r="B83" s="16"/>
       <c r="C83" s="8"/>
       <c r="D83" s="6"/>
@@ -7602,7 +8070,7 @@
       <c r="AG83" s="6"/>
       <c r="AH83" s="7"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:34">
       <c r="B84" s="16"/>
       <c r="C84" s="8"/>
       <c r="D84" s="6"/>
@@ -7637,7 +8105,7 @@
       <c r="AG84" s="6"/>
       <c r="AH84" s="7"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:34">
       <c r="B85" s="16"/>
       <c r="C85" s="8"/>
       <c r="D85" s="6"/>
@@ -7672,7 +8140,7 @@
       <c r="AG85" s="6"/>
       <c r="AH85" s="7"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:34">
       <c r="B86" s="16"/>
       <c r="C86" s="8"/>
       <c r="D86" s="6"/>
@@ -7707,7 +8175,7 @@
       <c r="AG86" s="6"/>
       <c r="AH86" s="7"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:34">
       <c r="B87" s="16"/>
       <c r="C87" s="8"/>
       <c r="D87" s="6"/>
@@ -7742,7 +8210,7 @@
       <c r="AG87" s="6"/>
       <c r="AH87" s="7"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:34">
       <c r="B88" s="16"/>
       <c r="C88" s="8"/>
       <c r="D88" s="6"/>
@@ -7777,7 +8245,7 @@
       <c r="AG88" s="6"/>
       <c r="AH88" s="7"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:34">
       <c r="B89" s="16"/>
       <c r="C89" s="8"/>
       <c r="D89" s="6"/>
@@ -7812,7 +8280,7 @@
       <c r="AG89" s="6"/>
       <c r="AH89" s="7"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:34">
       <c r="B90" s="16"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6"/>
@@ -7847,7 +8315,7 @@
       <c r="AG90" s="6"/>
       <c r="AH90" s="7"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:34">
       <c r="B91" s="16"/>
       <c r="C91" s="8"/>
       <c r="D91" s="6"/>
@@ -7882,7 +8350,7 @@
       <c r="AG91" s="6"/>
       <c r="AH91" s="7"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:34">
       <c r="B92" s="16"/>
       <c r="C92" s="8"/>
       <c r="D92" s="6"/>
@@ -7917,7 +8385,7 @@
       <c r="AG92" s="6"/>
       <c r="AH92" s="7"/>
     </row>
-    <row r="93" spans="2:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" ht="17" thickBot="1">
       <c r="B93" s="17"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
@@ -7962,17 +8430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA60C8-2F87-6345-A772-BCFBFE4ABD71}">
   <dimension ref="A1:AM93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="17" thickBot="1"/>
+    <row r="2" spans="1:39">
       <c r="B2" s="14"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -8012,7 +8478,7 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
         <v>2</v>
@@ -8055,7 +8521,7 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
@@ -8097,7 +8563,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="7"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39">
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
@@ -8139,7 +8605,7 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="7"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39">
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
@@ -8181,7 +8647,7 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="7"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39">
       <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
@@ -8223,7 +8689,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="7"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39">
       <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
@@ -8265,7 +8731,7 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="7"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39">
       <c r="B9" s="16"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
@@ -8305,7 +8771,7 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39">
       <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
@@ -8347,7 +8813,7 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="7"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39">
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
@@ -8389,7 +8855,7 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="7"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39">
       <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
@@ -8431,7 +8897,7 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39">
       <c r="B13" s="16"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
@@ -8471,7 +8937,7 @@
       <c r="AL13" s="6"/>
       <c r="AM13" s="7"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39">
       <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
@@ -8511,7 +8977,7 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="7"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39">
       <c r="B15" s="16"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
@@ -8551,7 +9017,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="7"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39">
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
@@ -8591,7 +9057,7 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="7"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:39">
       <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
@@ -8631,7 +9097,7 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="7"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:39">
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
@@ -8671,7 +9137,7 @@
       <c r="AL18" s="6"/>
       <c r="AM18" s="7"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39">
       <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
@@ -8711,7 +9177,7 @@
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39">
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
@@ -8751,7 +9217,7 @@
       <c r="AL20" s="6"/>
       <c r="AM20" s="7"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:39">
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
@@ -8790,7 +9256,7 @@
       <c r="AL21" s="6"/>
       <c r="AM21" s="7"/>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39">
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
@@ -8829,7 +9295,7 @@
       <c r="AL22" s="6"/>
       <c r="AM22" s="7"/>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39">
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
@@ -8869,7 +9335,7 @@
       <c r="AL23" s="6"/>
       <c r="AM23" s="7"/>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39">
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
@@ -8909,7 +9375,7 @@
       <c r="AL24" s="6"/>
       <c r="AM24" s="7"/>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39">
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
@@ -8949,7 +9415,7 @@
       <c r="AL25" s="6"/>
       <c r="AM25" s="7"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39">
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
@@ -8989,7 +9455,7 @@
       <c r="AL26" s="6"/>
       <c r="AM26" s="7"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39">
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
@@ -9029,7 +9495,7 @@
       <c r="AL27" s="6"/>
       <c r="AM27" s="7"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39">
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
@@ -9069,7 +9535,7 @@
       <c r="AL28" s="6"/>
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39">
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
@@ -9109,7 +9575,7 @@
       <c r="AL29" s="6"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39">
       <c r="B30" s="16"/>
       <c r="C30" s="6" t="s">
         <v>26</v>
@@ -9151,7 +9617,7 @@
       <c r="AL30" s="6"/>
       <c r="AM30" s="7"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39">
       <c r="B31" s="16"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -9195,7 +9661,7 @@
       <c r="AL31" s="6"/>
       <c r="AM31" s="7"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39">
       <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6"/>
@@ -9239,7 +9705,7 @@
       <c r="AL32" s="6"/>
       <c r="AM32" s="7"/>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39">
       <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6"/>
@@ -9281,7 +9747,7 @@
       <c r="AL33" s="6"/>
       <c r="AM33" s="7"/>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39">
       <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
@@ -9321,7 +9787,7 @@
       <c r="AL34" s="6"/>
       <c r="AM34" s="7"/>
     </row>
-    <row r="35" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:39" ht="17" thickBot="1">
       <c r="B35" s="17"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -9361,7 +9827,7 @@
       <c r="AL35" s="11"/>
       <c r="AM35" s="12"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39">
       <c r="B36" s="14"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -9401,7 +9867,7 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="4"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39">
       <c r="B37" s="16" t="s">
         <v>10</v>
       </c>
@@ -9443,7 +9909,7 @@
       <c r="AL37" s="6"/>
       <c r="AM37" s="7"/>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39">
       <c r="B38" s="16" t="s">
         <v>9</v>
       </c>
@@ -9485,7 +9951,7 @@
       <c r="AL38" s="6"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39">
       <c r="B39" s="16" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9992,7 @@
       <c r="AL39" s="6"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39">
       <c r="B40" s="16" t="s">
         <v>12</v>
       </c>
@@ -9568,7 +10034,7 @@
       <c r="AL40" s="6"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:39">
       <c r="B41" s="16" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +10076,7 @@
       <c r="AL41" s="6"/>
       <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:39">
       <c r="B42" s="16" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +10118,7 @@
       <c r="AL42" s="6"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:39">
       <c r="B43" s="16" t="s">
         <v>9</v>
       </c>
@@ -9694,7 +10160,7 @@
       <c r="AL43" s="6"/>
       <c r="AM43" s="7"/>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:39">
       <c r="B44" s="16"/>
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
@@ -9731,7 +10197,7 @@
       <c r="AL44" s="6"/>
       <c r="AM44" s="7"/>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39">
       <c r="B45" s="16"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6"/>
@@ -9769,7 +10235,7 @@
       <c r="AL45" s="6"/>
       <c r="AM45" s="7"/>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:39">
       <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6"/>
@@ -9809,7 +10275,7 @@
       <c r="AL46" s="6"/>
       <c r="AM46" s="7"/>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:39">
       <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
@@ -9849,7 +10315,7 @@
       <c r="AL47" s="6"/>
       <c r="AM47" s="7"/>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:39">
       <c r="B48" s="16"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
@@ -9889,7 +10355,7 @@
       <c r="AL48" s="6"/>
       <c r="AM48" s="7"/>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:39">
       <c r="B49" s="16"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
@@ -9929,7 +10395,7 @@
       <c r="AL49" s="6"/>
       <c r="AM49" s="7"/>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:39">
       <c r="B50" s="16"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6"/>
@@ -9969,7 +10435,7 @@
       <c r="AL50" s="6"/>
       <c r="AM50" s="7"/>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:39">
       <c r="B51" s="16"/>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
@@ -10009,7 +10475,7 @@
       <c r="AL51" s="6"/>
       <c r="AM51" s="7"/>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39">
       <c r="B52" s="16"/>
       <c r="C52" s="8"/>
       <c r="D52" s="6"/>
@@ -10047,7 +10513,7 @@
       <c r="AL52" s="6"/>
       <c r="AM52" s="7"/>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39">
       <c r="B53" s="16"/>
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
@@ -10087,7 +10553,7 @@
       <c r="AL53" s="6"/>
       <c r="AM53" s="7"/>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:39">
       <c r="B54" s="16"/>
       <c r="C54" s="8"/>
       <c r="D54" s="6"/>
@@ -10127,7 +10593,7 @@
       <c r="AL54" s="6"/>
       <c r="AM54" s="7"/>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:39">
       <c r="B55" s="16"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6"/>
@@ -10167,7 +10633,7 @@
       <c r="AL55" s="6"/>
       <c r="AM55" s="7"/>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:39">
       <c r="B56" s="16"/>
       <c r="C56" s="8"/>
       <c r="D56" s="6"/>
@@ -10207,7 +10673,7 @@
       <c r="AL56" s="6"/>
       <c r="AM56" s="7"/>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:39">
       <c r="B57" s="16"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6"/>
@@ -10247,7 +10713,7 @@
       <c r="AL57" s="6"/>
       <c r="AM57" s="7"/>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39">
       <c r="B58" s="16"/>
       <c r="C58" s="8"/>
       <c r="D58" s="6"/>
@@ -10287,7 +10753,7 @@
       <c r="AL58" s="6"/>
       <c r="AM58" s="7"/>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39">
       <c r="B59" s="16"/>
       <c r="C59" s="8"/>
       <c r="D59" s="6"/>
@@ -10327,7 +10793,7 @@
       <c r="AL59" s="6"/>
       <c r="AM59" s="7"/>
     </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:39">
       <c r="B60" s="16"/>
       <c r="C60" s="8"/>
       <c r="D60" s="6"/>
@@ -10367,7 +10833,7 @@
       <c r="AL60" s="6"/>
       <c r="AM60" s="7"/>
     </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:39">
       <c r="B61" s="16"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
@@ -10407,7 +10873,7 @@
       <c r="AL61" s="6"/>
       <c r="AM61" s="7"/>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:39">
       <c r="B62" s="16"/>
       <c r="C62" s="8"/>
       <c r="D62" s="6"/>
@@ -10447,7 +10913,7 @@
       <c r="AL62" s="6"/>
       <c r="AM62" s="7"/>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:39">
       <c r="B63" s="16"/>
       <c r="C63" s="8"/>
       <c r="D63" s="6"/>
@@ -10487,7 +10953,7 @@
       <c r="AL63" s="6"/>
       <c r="AM63" s="7"/>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39">
       <c r="B64" s="16"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6"/>
@@ -10527,7 +10993,7 @@
       <c r="AL64" s="6"/>
       <c r="AM64" s="7"/>
     </row>
-    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:39">
       <c r="B65" s="16"/>
       <c r="C65" s="8"/>
       <c r="D65" s="6"/>
@@ -10567,7 +11033,7 @@
       <c r="AL65" s="6"/>
       <c r="AM65" s="7"/>
     </row>
-    <row r="66" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:39">
       <c r="B66" s="16"/>
       <c r="C66" s="8"/>
       <c r="D66" s="6"/>
@@ -10607,7 +11073,7 @@
       <c r="AL66" s="6"/>
       <c r="AM66" s="7"/>
     </row>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:39">
       <c r="B67" s="16"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
@@ -10647,7 +11113,7 @@
       <c r="AL67" s="6"/>
       <c r="AM67" s="7"/>
     </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:39">
       <c r="B68" s="16"/>
       <c r="C68" s="8"/>
       <c r="D68" s="6"/>
@@ -10687,7 +11153,7 @@
       <c r="AL68" s="6"/>
       <c r="AM68" s="7"/>
     </row>
-    <row r="69" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:39" ht="17" thickBot="1">
       <c r="B69" s="17"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
@@ -10727,7 +11193,7 @@
       <c r="AL69" s="11"/>
       <c r="AM69" s="12"/>
     </row>
-    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:39">
       <c r="B70" s="14"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -10769,7 +11235,7 @@
       <c r="AL70" s="3"/>
       <c r="AM70" s="4"/>
     </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:39">
       <c r="B71" s="16" t="s">
         <v>13</v>
       </c>
@@ -10817,7 +11283,7 @@
       <c r="AL71" s="6"/>
       <c r="AM71" s="7"/>
     </row>
-    <row r="72" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:39">
       <c r="B72" s="16" t="s">
         <v>7</v>
       </c>
@@ -10863,7 +11329,7 @@
       <c r="AL72" s="6"/>
       <c r="AM72" s="7"/>
     </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:39">
       <c r="B73" s="16" t="s">
         <v>9</v>
       </c>
@@ -10909,7 +11375,7 @@
       <c r="AL73" s="6"/>
       <c r="AM73" s="7"/>
     </row>
-    <row r="74" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:39">
       <c r="B74" s="16" t="s">
         <v>6</v>
       </c>
@@ -10953,7 +11419,7 @@
       <c r="AL74" s="6"/>
       <c r="AM74" s="7"/>
     </row>
-    <row r="75" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:39">
       <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
@@ -10997,7 +11463,7 @@
       <c r="AL75" s="6"/>
       <c r="AM75" s="7"/>
     </row>
-    <row r="76" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:39">
       <c r="B76" s="16" t="s">
         <v>9</v>
       </c>
@@ -11039,7 +11505,7 @@
       <c r="AL76" s="6"/>
       <c r="AM76" s="7"/>
     </row>
-    <row r="77" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:39">
       <c r="B77" s="16"/>
       <c r="C77" s="8"/>
       <c r="D77" s="6"/>
@@ -11079,7 +11545,7 @@
       <c r="AL77" s="6"/>
       <c r="AM77" s="7"/>
     </row>
-    <row r="78" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:39">
       <c r="B78" s="16"/>
       <c r="C78" s="8"/>
       <c r="D78" s="6"/>
@@ -11119,7 +11585,7 @@
       <c r="AL78" s="6"/>
       <c r="AM78" s="7"/>
     </row>
-    <row r="79" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:39">
       <c r="B79" s="16"/>
       <c r="C79" s="8"/>
       <c r="D79" s="6"/>
@@ -11159,7 +11625,7 @@
       <c r="AL79" s="6"/>
       <c r="AM79" s="7"/>
     </row>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:39">
       <c r="B80" s="16"/>
       <c r="C80" s="8"/>
       <c r="D80" s="6"/>
@@ -11199,7 +11665,7 @@
       <c r="AL80" s="6"/>
       <c r="AM80" s="7"/>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:39">
       <c r="B81" s="16"/>
       <c r="C81" s="8"/>
       <c r="D81" s="6"/>
@@ -11219,7 +11685,9 @@
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
+      <c r="V81" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
@@ -11233,12 +11701,14 @@
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AJ81" s="6"/>
+      <c r="AJ81" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="AK81" s="6"/>
       <c r="AL81" s="6"/>
       <c r="AM81" s="7"/>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:39">
       <c r="B82" s="16"/>
       <c r="C82" s="8"/>
       <c r="D82" s="6"/>
@@ -11278,7 +11748,7 @@
       <c r="AL82" s="6"/>
       <c r="AM82" s="7"/>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:39">
       <c r="B83" s="16"/>
       <c r="C83" s="8"/>
       <c r="D83" s="6"/>
@@ -11318,7 +11788,7 @@
       <c r="AL83" s="6"/>
       <c r="AM83" s="7"/>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:39">
       <c r="B84" s="16"/>
       <c r="C84" s="8"/>
       <c r="D84" s="6"/>
@@ -11358,7 +11828,7 @@
       <c r="AL84" s="6"/>
       <c r="AM84" s="7"/>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:39">
       <c r="B85" s="16"/>
       <c r="C85" s="8"/>
       <c r="D85" s="6"/>
@@ -11398,7 +11868,7 @@
       <c r="AL85" s="6"/>
       <c r="AM85" s="7"/>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:39">
       <c r="B86" s="16"/>
       <c r="C86" s="8"/>
       <c r="D86" s="6"/>
@@ -11438,7 +11908,7 @@
       <c r="AL86" s="6"/>
       <c r="AM86" s="7"/>
     </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:39">
       <c r="B87" s="16"/>
       <c r="C87" s="8"/>
       <c r="D87" s="6"/>
@@ -11478,7 +11948,7 @@
       <c r="AL87" s="6"/>
       <c r="AM87" s="7"/>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:39">
       <c r="B88" s="16"/>
       <c r="C88" s="8"/>
       <c r="D88" s="6"/>
@@ -11518,7 +11988,7 @@
       <c r="AL88" s="6"/>
       <c r="AM88" s="7"/>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:39">
       <c r="B89" s="16"/>
       <c r="C89" s="8"/>
       <c r="D89" s="6"/>
@@ -11558,7 +12028,7 @@
       <c r="AL89" s="6"/>
       <c r="AM89" s="7"/>
     </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:39">
       <c r="B90" s="16"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6"/>
@@ -11598,7 +12068,7 @@
       <c r="AL90" s="6"/>
       <c r="AM90" s="7"/>
     </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:39">
       <c r="B91" s="16"/>
       <c r="C91" s="8"/>
       <c r="D91" s="6"/>
@@ -11638,7 +12108,7 @@
       <c r="AL91" s="6"/>
       <c r="AM91" s="7"/>
     </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:39">
       <c r="B92" s="16"/>
       <c r="C92" s="8"/>
       <c r="D92" s="6"/>
@@ -11678,7 +12148,7 @@
       <c r="AL92" s="6"/>
       <c r="AM92" s="7"/>
     </row>
-    <row r="93" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:39" ht="17" thickBot="1">
       <c r="B93" s="17"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
